--- a/Promo Item List.xlsx
+++ b/Promo Item List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APIIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5766884-DAA7-4E16-B388-2D3BF257C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A82AB0-83F8-4754-8417-6FBE95E59B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F88C7B5F-2589-408A-8A1B-661076562786}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F88C7B5F-2589-408A-8A1B-661076562786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Product</t>
   </si>
@@ -52,159 +52,30 @@
     <t>&lt;&lt;&lt; Must key only Start Date and End Date at this row</t>
   </si>
   <si>
-    <t>2TC32EG2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH-55MX650K        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50U8030/68T        </t>
-  </si>
-  <si>
     <t xml:space="preserve">50PUT7908/68        </t>
   </si>
   <si>
-    <t xml:space="preserve">KD-50X75K        </t>
-  </si>
-  <si>
     <t xml:space="preserve">TRTM-W1650S1        </t>
   </si>
   <si>
     <t xml:space="preserve">TRF-520WEXPA+        </t>
   </si>
   <si>
-    <t xml:space="preserve">NR-BB211PKMY        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH-32L400K        </t>
-  </si>
-  <si>
     <t>UA43AU7000KXXM</t>
   </si>
   <si>
-    <t xml:space="preserve">65UQ8050PSB        </t>
-  </si>
-  <si>
     <t xml:space="preserve">HWM100-316S6        </t>
   </si>
   <si>
-    <t xml:space="preserve">HWM150-316S6        </t>
-  </si>
-  <si>
     <t xml:space="preserve">NA-F100A9DRT        </t>
   </si>
   <si>
-    <t xml:space="preserve">NA-FD18V1BRT        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC-X257CSES        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC-X257CQES        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX-EX1001WSK        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM720CGE-WH        </t>
-  </si>
-  <si>
-    <t>AFO1800</t>
-  </si>
-  <si>
-    <t>SM506P</t>
-  </si>
-  <si>
-    <t>BT808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM-MM10DZF(WH)        </t>
-  </si>
-  <si>
-    <t>NI-GT150ASK</t>
-  </si>
-  <si>
-    <t>NI-GT200ASK</t>
-  </si>
-  <si>
-    <t>NI-GT500NSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH-65MX650K        </t>
-  </si>
-  <si>
-    <t>KD-75X77L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD-85X80L        </t>
-  </si>
-  <si>
-    <t>H85S5UG PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRSB-W713IS1        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRCD-W550IS1        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUSSO 100BK        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF165        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRF-IV258H        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER-N2418(SV)        </t>
-  </si>
-  <si>
-    <t>GR-RD208CM-DMY(37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR-RS696WI-PMY(06)        </t>
-  </si>
-  <si>
     <t xml:space="preserve">HWM120-316S6        </t>
   </si>
   <si>
-    <t xml:space="preserve">WA80CG4545BYFQ        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2516VSAJ        </t>
-  </si>
-  <si>
-    <t>WTLD120D</t>
-  </si>
-  <si>
-    <t>WTLD170D</t>
-  </si>
-  <si>
     <t xml:space="preserve">WW70T3020WW/FQ        </t>
   </si>
   <si>
-    <t>FV1209S5WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUF-208SD        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUF-307SS        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCF-280FC        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRCF-D4380W1        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASW-09B6A4/FFR3DI-C5/AS-09B6A4/FFR3DI-C5        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASW-12U4/FLR3-MY/AS-12U4/FLR3-MY        </t>
-  </si>
-  <si>
     <t xml:space="preserve">TAC-18CSD/XAB1        </t>
   </si>
   <si>
@@ -223,36 +94,9 @@
     <t xml:space="preserve">SR-E28ASKN        </t>
   </si>
   <si>
-    <t>SR-HL151KSK</t>
-  </si>
-  <si>
     <t>F-M15A0VBWH</t>
   </si>
   <si>
-    <t>VS15A60AGR5/ME</t>
-  </si>
-  <si>
-    <t>VS20B75AER4/ME</t>
-  </si>
-  <si>
-    <t>VS20T7538T7/ME</t>
-  </si>
-  <si>
-    <t>VS20C852FTB/ME</t>
-  </si>
-  <si>
-    <t>VS20A95943N/ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF-16FS23C-BK        </t>
-  </si>
-  <si>
-    <t>MO23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEO-G1029(BK)        </t>
-  </si>
-  <si>
     <t>F-MX405-BN</t>
   </si>
   <si>
@@ -268,18 +112,6 @@
     <t>F-M14CZVBKH</t>
   </si>
   <si>
-    <t xml:space="preserve">WD 1 CLASSIC      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 2.050   </t>
-  </si>
-  <si>
-    <t>MC55XVMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC30YVMM </t>
-  </si>
-  <si>
     <t>SR-Y18GLSKN</t>
   </si>
   <si>
@@ -287,6 +119,75 @@
   </si>
   <si>
     <t>SR-Y18GASKN</t>
+  </si>
+  <si>
+    <t>43S5400A</t>
+  </si>
+  <si>
+    <t>55P636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF-250WMY        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF-330WMY        </t>
+  </si>
+  <si>
+    <t>MDRT267MTB30</t>
+  </si>
+  <si>
+    <t>MDRF550FGF28</t>
+  </si>
+  <si>
+    <t>MDRS710FGE28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC-B507PGAM        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRF-510MG        </t>
+  </si>
+  <si>
+    <t>T2516VSAJ</t>
+  </si>
+  <si>
+    <t>MA100W75</t>
+  </si>
+  <si>
+    <t>MA100W85</t>
+  </si>
+  <si>
+    <t>MA100W95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW-BL115A2M(SS)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWF100-N12312EHA07E        </t>
+  </si>
+  <si>
+    <t>F2515RTGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMFC09V-2B1A3NB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMFC12V-2B1A3NB        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHA12WCD2/AUA12WCD2        </t>
+  </si>
+  <si>
+    <t>AR24TGHQABUNME/AR24TGHQABUXME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAC-12CPA/SL        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-MQ409-GY        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-MU50YVBKH        </t>
   </si>
 </sst>
 </file>
@@ -679,7 +580,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +598,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45409</v>
+        <v>45415</v>
       </c>
       <c r="B2" s="4">
-        <v>45415.999988425923</v>
+        <v>45420.999988425923</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -718,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4107EA-6ABD-4330-9B67-9F7A2459B5EE}">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,17 +637,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -756,22 +657,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -786,57 +687,57 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -851,282 +752,117 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
